--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\Selenium Practice\Opencart121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67ECC0B-9FAF-4964-9905-D0440010CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A3826C-7BCE-445B-87F4-2B3E79827D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2355" windowWidth="17820" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>res</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -42,15 +39,9 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
     <t>laksh@yahoo.com</t>
   </si>
   <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>Lakshmi</t>
   </si>
   <si>
@@ -67,6 +58,12 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>Pavanoltraining@gmail.com</t>
+  </si>
+  <si>
+    <t>lakshmi1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,78 +413,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E6F8E0C2-4779-4F41-8ACD-19E7BAC82D0A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7271418A-0AFC-41B8-8EC7-B5171C4B40C7}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{D5AB1835-EC12-4AE5-A767-393B3EFF3B67}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{166A18A5-6293-4BF4-B7CB-9873366DA15A}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{D0BF49B5-CA76-482E-A65A-0F8C6E552CE6}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{D40D2F52-B470-410B-88D1-F8D8A5834F08}"/>
+    <hyperlink ref="B2" r:id="rId1" display="test@123" xr:uid="{E6F8E0C2-4779-4F41-8ACD-19E7BAC82D0A}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{D5AB1835-EC12-4AE5-A767-393B3EFF3B67}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{166A18A5-6293-4BF4-B7CB-9873366DA15A}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{D0BF49B5-CA76-482E-A65A-0F8C6E552CE6}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{D40D2F52-B470-410B-88D1-F8D8A5834F08}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{8D3B7A04-54AE-4A5B-9A4C-A59B03F821E0}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{8E2AA0B7-01E6-4B2C-9128-7158CF0CE92B}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{A211D1B0-CD6A-4C29-9E57-8ED01A990B02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
